--- a/document/wsl 이용 모델 검증.xlsx
+++ b/document/wsl 이용 모델 검증.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\tom\python_project\exynos_ai_studio_verifier\ai_studio_2_x\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\tom\python_project\exynos_ai_studio_verifier\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5398A02-D119-4A06-82BE-A16CC563DF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF72D66A-6394-4743-A4D0-3E4FBE0EA9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{287E80BA-A843-4815-A0AB-A410A6F7273F}"/>
   </bookViews>
@@ -654,7 +654,7 @@
       </rPr>
       <t xml:space="preserve">ubuntu-22.04/enntools-rel:7.10.8.31
 [옵션 추가]
- &gt;&gt; docker run -it --security-opt seccomp:unconfined --cap-add=ALL --privileged --net host --ipc host -v /mnt/c/Work/tom/python_project/exynos_ai_studio_verifier/ai_studio_2_x/test_model_repo://home/user/enntools-workspace/ -v /etc/timezone:/etc/timezone -w /home/user/ --name enntools_rel_5_34_7_2_container  ubuntu-18.04/enntools-rel:5.34.7.2
+ &gt;&gt; docker run -it --security-opt seccomp:unconfined --cap-add=ALL --privileged --net host --ipc host -v /mnt/c/Work/tom/python_project/exynos_ai_studio_verifier/ai_studio_2_x/test_model_repo:/workspace -v /etc/timezone:/etc/timezone -w /workspace --name enntools_rel_7_11_22_21_container  ubuntu-22.04/enntools-rel:7.11.22.21
 </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1333,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309CBF2C-1189-4B62-9CB3-84F60FD83D0B}">
   <dimension ref="D3:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/document/wsl 이용 모델 검증.xlsx
+++ b/document/wsl 이용 모델 검증.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\tom\python_project\exynos_ai_studio_verifier\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF72D66A-6394-4743-A4D0-3E4FBE0EA9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52F37F4-781D-4EA7-B968-64C9E8065CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{287E80BA-A843-4815-A0AB-A410A6F7273F}"/>
   </bookViews>
@@ -654,7 +654,7 @@
       </rPr>
       <t xml:space="preserve">ubuntu-22.04/enntools-rel:7.10.8.31
 [옵션 추가]
- &gt;&gt; docker run -it --security-opt seccomp:unconfined --cap-add=ALL --privileged --net host --ipc host -v /mnt/c/Work/tom/python_project/exynos_ai_studio_verifier/ai_studio_2_x/test_model_repo:/workspace -v /etc/timezone:/etc/timezone -w /workspace --name enntools_rel_7_11_22_21_container  ubuntu-22.04/enntools-rel:7.11.22.21
+ &gt;&gt; docker run -it --security-opt seccomp:unconfined --cap-add=ALL --privileged --net host --ipc host -v /mnt/c/Work/tom/python_project/exynos_ai_studio_verifier/Result:/workspace -v /etc/timezone:/etc/timezone -w /workspace --name enntools_rel_7_11_22_21_container  ubuntu-22.04/enntools-rel:7.11.22.21
 </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>

--- a/document/wsl 이용 모델 검증.xlsx
+++ b/document/wsl 이용 모델 검증.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\tom\python_project\exynos_ai_studio_verifier\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52F37F4-781D-4EA7-B968-64C9E8065CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F742818-E61C-4263-A9B9-BBAE6274AF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{287E80BA-A843-4815-A0AB-A410A6F7273F}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{287E80BA-A843-4815-A0AB-A410A6F7273F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,7 @@
       </rPr>
       <t xml:space="preserve">ubuntu-22.04/enntools-rel:7.10.8.31
 [옵션 추가]
- &gt;&gt; docker run -it --security-opt seccomp:unconfined --cap-add=ALL --privileged --net host --ipc host -v /mnt/c/Work/tom/python_project/exynos_ai_studio_verifier/Result:/workspace -v /etc/timezone:/etc/timezone -w /workspace --name enntools_rel_7_11_22_21_container  ubuntu-22.04/enntools-rel:7.11.22.21
+ &gt;&gt; docker run -it --security-opt seccomp:unconfined --cap-add=ALL --privileged --net host --ipc host -v /mnt/c/Work/tom/python_project/exynos_ai_studio_verifier/tools/linux_enntools:/workspace -v /etc/timezone:/etc/timezone -w /workspace --name enntools_rel_7_11_22_21_container  ubuntu-22.04/enntools-rel:7.11.22.21
 </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
